--- a/biology/Botanique/Eucalyptus_scoparia/Eucalyptus_scoparia.xlsx
+++ b/biology/Botanique/Eucalyptus_scoparia/Eucalyptus_scoparia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus scoparia, le gommier blanc de Wallangarra est une espèce d'arbre australien de la famille des Myrtaceae. C'est un arbre de taille petite à moyenne, à l'écorce lisse, blanche tachée de gris clair avec un revêtement pulvérulent. Les feuilles sont pétiolées, lancéolées, étroite de 15 cm de long sur 1 cm de large, concolores, d'un vert brillant, avec de nombreuses glandes sébacées. Les fleurs blanches apparaissent à la fin du printemps et au début de l'été.
 La distribution est limitée aux plateaux élevés de la région de Wallangarra région du sud du Queensland et en Nouvelle-Galles du Sud. Un très petit groupe existe sur le mont Ferguson à l'ouest d'Amiens. Les arbres poussent dans des fissures d'énormes affleurements de granit sur les sommets montagneux.
